--- a/www/terminologies/ASS-A25-PaysProvenanceISO-PaysProvenanceCOG.xlsx
+++ b/www/terminologies/ASS-A25-PaysProvenanceISO-PaysProvenanceCOG.xlsx
@@ -111,13 +111,13 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R268-PaysProvenanceISO/FHIR/TRE-R268-PaysProvenanceISO</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R268-PaysProvenanceISO/FHIR/TRE-R268-PaysProvenanceISO|20240126120000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R20-Pays/FHIR/TRE-R20-Pays</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R20-Pays/FHIR/TRE-R20-Pays|20250328120000</t>
   </si>
   <si>
     <t>AD</t>
